--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,169 +43,190 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>months</t>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>lid</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>filters</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>however</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>useless</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>sent</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>iron</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>found</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>found</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>first</t>
@@ -214,39 +235,42 @@
     <t>get</t>
   </si>
   <si>
-    <t>product</t>
+    <t>could</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
@@ -256,82 +280,85 @@
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>nice</t>
@@ -340,10 +367,10 @@
     <t>quality</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -707,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +803,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9823008849557522</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9375</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -818,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9322033898305084</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9292929292929293</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8972972972972973</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8169491525423729</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>241</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>241</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.863013698630137</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>0.8542372881355932</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="L7">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8490566037735849</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>0.8441558441558441</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8222222222222222</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8111111111111111</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K10">
-        <v>0.6973684210526315</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1203,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8102564102564103</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.6710526315789473</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8088235294117647</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7931034482758621</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>0.5945945945945946</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7887323943661971</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K14">
-        <v>0.5873015873015873</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1403,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7829457364341085</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,31 +1421,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>0.5574712643678161</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1453,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.78</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,31 +1471,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.5111111111111111</v>
+        <v>0.4524959742351047</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>562</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>566</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7735849056603774</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0.4567901234567901</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1526,13 +1553,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7567567567567568</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K18">
-        <v>0.4421221864951769</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="L18">
-        <v>550</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>552</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>694</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>0.4264705882352941</v>
+        <v>0.3616438356164384</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1653,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>0.4202898550724637</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1703,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.717948717948718</v>
+        <v>0.7487179487179487</v>
       </c>
       <c r="C21">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1753,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7168141592920354</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,31 +1771,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K22">
-        <v>0.3225806451612903</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7045454545454546</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K23">
-        <v>0.3082191780821918</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>505</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1853,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6796116504854369</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,16 +1874,16 @@
         <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>0.2608695652173913</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.6987179487179487</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>0.2251655629139073</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1953,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.65</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K26">
-        <v>0.2115384615384615</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +2003,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,31 +2021,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K27">
-        <v>0.1893939393939394</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="L27">
         <v>25</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2053,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6346153846153846</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,19 +2071,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K28">
-        <v>0.1377245508982036</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2103,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K29">
-        <v>0.1151960784313725</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2118,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>361</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2153,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5977653631284916</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C30">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,31 +2171,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K30">
-        <v>0.07177033492822966</v>
+        <v>0.1031941031941032</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,49 +2203,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5757575757575758</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C31">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>38</v>
       </c>
-      <c r="D31">
-        <v>38</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>28</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K31">
-        <v>0.04920212765957447</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>715</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,13 +2253,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5757575757575758</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2244,31 +2271,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K32">
-        <v>0.03861003861003861</v>
+        <v>0.06056701030927835</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N32">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="O32">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2276,13 +2303,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.57</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2294,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K33">
-        <v>0.03559870550161812</v>
+        <v>0.0598404255319149</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N33">
         <v>0.9399999999999999</v>
@@ -2318,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>894</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2326,13 +2353,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5576923076923077</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2344,7 +2371,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L34">
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <v>47</v>
+      </c>
+      <c r="N34">
+        <v>0.89</v>
+      </c>
+      <c r="O34">
+        <v>0.11</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>882</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,13 +2403,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5111111111111111</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2370,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2378,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4938271604938271</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2396,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2455,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.492063492063492</v>
+        <v>0.55</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2430,13 +2481,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.475</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C38">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2448,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2456,13 +2507,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4597701149425287</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2474,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2482,13 +2533,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4342105263157895</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2500,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2508,13 +2559,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4242424242424243</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2526,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2534,13 +2585,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.423728813559322</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2552,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2560,13 +2611,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3962264150943396</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C43">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2578,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>224</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2586,13 +2637,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3814432989690721</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2604,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2612,13 +2663,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3770491803278688</v>
+        <v>0.41</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2630,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2638,13 +2689,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3666666666666666</v>
+        <v>0.4039735099337748</v>
       </c>
       <c r="C46">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2656,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>133</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2664,13 +2715,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3373493975903614</v>
+        <v>0.3952380952380952</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2682,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2690,13 +2741,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3258426966292135</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="C48">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2708,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2716,13 +2767,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3245033112582781</v>
+        <v>0.38544474393531</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2734,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>102</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2742,13 +2793,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3023255813953488</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2760,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2768,13 +2819,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2925170068027211</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C51">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D51">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2786,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2794,13 +2845,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2857142857142857</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2812,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2820,13 +2871,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2758620689655172</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2838,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2846,13 +2897,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2522522522522522</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2864,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2872,13 +2923,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2503401360544218</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C55">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2890,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>551</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2898,13 +2949,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2427184466019418</v>
+        <v>0.3202247191011236</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2916,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2924,25 +2975,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2162162162162162</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D57">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E57">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>145</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2950,25 +3001,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2114537444933921</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C58">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>179</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2976,13 +3027,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1919191919191919</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2994,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3002,13 +3053,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1858190709046455</v>
+        <v>0.2592087312414734</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="D60">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="E60">
         <v>0.01</v>
@@ -3020,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>333</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3028,25 +3079,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1775456919060052</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="C61">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D61">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>630</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3054,13 +3105,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1768707482993197</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3072,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3080,25 +3131,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.169811320754717</v>
+        <v>0.2114093959731544</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>132</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3106,25 +3157,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1672240802675585</v>
+        <v>0.1719160104986877</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>249</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3132,13 +3183,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1428571428571428</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3150,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3158,13 +3209,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3176,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3184,25 +3235,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1263736263736264</v>
+        <v>0.1662591687041565</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3210,25 +3261,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1015228426395939</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>354</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3236,13 +3287,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0782608695652174</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3254,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>318</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3262,25 +3313,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.05984555984555984</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>487</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3288,25 +3339,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0583941605839416</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="C71">
         <v>24</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>387</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3314,25 +3365,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.04978165938864629</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="C72">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1088</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3340,25 +3391,233 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.02717900656044986</v>
+        <v>0.1072463768115942</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1038</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.0996309963099631</v>
+      </c>
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>28</v>
+      </c>
+      <c r="E74">
+        <v>0.04</v>
+      </c>
+      <c r="F74">
+        <v>0.96</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.07888040712468193</v>
+      </c>
+      <c r="C75">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>0.03</v>
+      </c>
+      <c r="F75">
+        <v>0.97</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.07364341085271318</v>
+      </c>
+      <c r="C76">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>44</v>
+      </c>
+      <c r="E76">
+        <v>0.14</v>
+      </c>
+      <c r="F76">
+        <v>0.86</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06983240223463687</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.06617647058823529</v>
+      </c>
+      <c r="C78">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>0.18</v>
+      </c>
+      <c r="F78">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.0541871921182266</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79">
+        <v>0.19</v>
+      </c>
+      <c r="F79">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.04632867132867133</v>
+      </c>
+      <c r="C80">
+        <v>53</v>
+      </c>
+      <c r="D80">
+        <v>66</v>
+      </c>
+      <c r="E80">
+        <v>0.2</v>
+      </c>
+      <c r="F80">
+        <v>0.8</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.03864278982092366</v>
+      </c>
+      <c r="C81">
+        <v>41</v>
+      </c>
+      <c r="D81">
+        <v>52</v>
+      </c>
+      <c r="E81">
+        <v>0.21</v>
+      </c>
+      <c r="F81">
+        <v>0.79</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
